--- a/数据更新记录-更新到20200111.xlsx
+++ b/数据更新记录-更新到20200111.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1160" uniqueCount="615">
   <si>
     <t>日期</t>
   </si>
@@ -2130,15 +2130,11 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>初音未来两套、氪金一套、白日梦想家</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>notice,wardrobe,index</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>notice,wardrobe,index</t>
+    <t>初音未来两套、氪金散件、氪金一套、白日梦想家</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2747,7 +2743,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G112" sqref="G112"/>
+      <selection pane="bottomLeft" activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4223,7 +4219,7 @@
         <v>611</v>
       </c>
       <c r="D111" s="45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
@@ -4231,10 +4227,10 @@
         <v>612</v>
       </c>
       <c r="C112" s="47" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>615</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
